--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,31 +665,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 69213-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 69213-2018.xlsx", "A 69213-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 69213-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 69213-2018.png", "A 69213-2018")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/knärot/A 69213-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/knärot/A 69213-2018.png", "A 69213-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 69213-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 69213-2018.docx", "A 69213-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 69213-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 69213-2018.docx", "A 69213-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 69213-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 69213-2018.docx", "A 69213-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 69213-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 69213-2018.docx", "A 69213-2018")</f>
         <v/>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,27 +766,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 42296-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 42296-2019.xlsx", "A 42296-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 42296-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 42296-2019.png", "A 42296-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 42296-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 42296-2019.docx", "A 42296-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 42296-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 42296-2019.docx", "A 42296-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 42296-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 42296-2019.docx", "A 42296-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 42296-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 42296-2019.docx", "A 42296-2019")</f>
         <v/>
       </c>
     </row>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 45388-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 45388-2019.xlsx", "A 45388-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 45388-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 45388-2019.png", "A 45388-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 45388-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 45388-2019.docx", "A 45388-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 45388-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 45388-2019.docx", "A 45388-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 45388-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 45388-2019.docx", "A 45388-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 45388-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 45388-2019.docx", "A 45388-2019")</f>
         <v/>
       </c>
     </row>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,31 +944,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 1293-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 1293-2021.xlsx", "A 1293-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 1293-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 1293-2021.png", "A 1293-2021")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/knärot/A 1293-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/knärot/A 1293-2021.png", "A 1293-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 1293-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 1293-2021.docx", "A 1293-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 1293-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 1293-2021.docx", "A 1293-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 1293-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 1293-2021.docx", "A 1293-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 1293-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 1293-2021.docx", "A 1293-2021")</f>
         <v/>
       </c>
     </row>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,27 +1036,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 7577-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 7577-2021.xlsx", "A 7577-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 7577-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 7577-2021.png", "A 7577-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 7577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 7577-2021.docx", "A 7577-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 7577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 7577-2021.docx", "A 7577-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 7577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 7577-2021.docx", "A 7577-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 7577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 7577-2021.docx", "A 7577-2021")</f>
         <v/>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,27 +1124,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 63367-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 63367-2021.xlsx", "A 63367-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 63367-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 63367-2021.png", "A 63367-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 63367-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 63367-2021.docx", "A 63367-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 63367-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 63367-2021.docx", "A 63367-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 63367-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 63367-2021.docx", "A 63367-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 63367-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 63367-2021.docx", "A 63367-2021")</f>
         <v/>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,27 +1216,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 42309-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 42309-2019.xlsx", "A 42309-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 42309-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 42309-2019.png", "A 42309-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 42309-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 42309-2019.docx", "A 42309-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 42309-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 42309-2019.docx", "A 42309-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 42309-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 42309-2019.docx", "A 42309-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 42309-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 42309-2019.docx", "A 42309-2019")</f>
         <v/>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,27 +1302,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 9953-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 9953-2020.xlsx", "A 9953-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 9953-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 9953-2020.png", "A 9953-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 9953-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 9953-2020.docx", "A 9953-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 9953-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 9953-2020.docx", "A 9953-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 9953-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 9953-2020.docx", "A 9953-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 9953-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 9953-2020.docx", "A 9953-2020")</f>
         <v/>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,27 +1388,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 30704-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 30704-2020.xlsx", "A 30704-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 30704-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 30704-2020.png", "A 30704-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 30704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 30704-2020.docx", "A 30704-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 30704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 30704-2020.docx", "A 30704-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 30704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 30704-2020.docx", "A 30704-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 30704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 30704-2020.docx", "A 30704-2020")</f>
         <v/>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,27 +1474,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 13274-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 13274-2022.xlsx", "A 13274-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 13274-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 13274-2022.png", "A 13274-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 13274-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 13274-2022.docx", "A 13274-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 13274-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 13274-2022.docx", "A 13274-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 13274-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 13274-2022.docx", "A 13274-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 13274-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 13274-2022.docx", "A 13274-2022")</f>
         <v/>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,27 +1560,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 51267-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 51267-2022.xlsx", "A 51267-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 51267-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 51267-2022.png", "A 51267-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 51267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 51267-2022.docx", "A 51267-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 51267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 51267-2022.docx", "A 51267-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 51267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 51267-2022.docx", "A 51267-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 51267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 51267-2022.docx", "A 51267-2022")</f>
         <v/>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,27 +1645,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 14600-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 14600-2019.xlsx", "A 14600-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 14600-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 14600-2019.png", "A 14600-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 14600-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 14600-2019.docx", "A 14600-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 14600-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 14600-2019.docx", "A 14600-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 14600-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 14600-2019.docx", "A 14600-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 14600-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 14600-2019.docx", "A 14600-2019")</f>
         <v/>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,27 +1730,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 15719-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 15719-2019.xlsx", "A 15719-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 15719-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 15719-2019.png", "A 15719-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 15719-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 15719-2019.docx", "A 15719-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 15719-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 15719-2019.docx", "A 15719-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 15719-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 15719-2019.docx", "A 15719-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 15719-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 15719-2019.docx", "A 15719-2019")</f>
         <v/>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1815,27 +1815,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 19024-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 19024-2019.xlsx", "A 19024-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 19024-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 19024-2019.png", "A 19024-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 19024-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 19024-2019.docx", "A 19024-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 19024-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 19024-2019.docx", "A 19024-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 19024-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 19024-2019.docx", "A 19024-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 19024-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 19024-2019.docx", "A 19024-2019")</f>
         <v/>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1900,27 +1900,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 59936-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 59936-2019.xlsx", "A 59936-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 59936-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 59936-2019.png", "A 59936-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 59936-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 59936-2019.docx", "A 59936-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 59936-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 59936-2019.docx", "A 59936-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 59936-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 59936-2019.docx", "A 59936-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 59936-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 59936-2019.docx", "A 59936-2019")</f>
         <v/>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1985,31 +1985,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 24251-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 24251-2020.xlsx", "A 24251-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 24251-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 24251-2020.png", "A 24251-2020")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/knärot/A 24251-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/knärot/A 24251-2020.png", "A 24251-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 24251-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 24251-2020.docx", "A 24251-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 24251-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 24251-2020.docx", "A 24251-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 24251-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 24251-2020.docx", "A 24251-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 24251-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 24251-2020.docx", "A 24251-2020")</f>
         <v/>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,31 +2074,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 55551-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 55551-2020.xlsx", "A 55551-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 55551-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 55551-2020.png", "A 55551-2020")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/knärot/A 55551-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/knärot/A 55551-2020.png", "A 55551-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 55551-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 55551-2020.docx", "A 55551-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 55551-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 55551-2020.docx", "A 55551-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 55551-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 55551-2020.docx", "A 55551-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 55551-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 55551-2020.docx", "A 55551-2020")</f>
         <v/>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,27 +2163,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 60640-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 60640-2020.xlsx", "A 60640-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 60640-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 60640-2020.png", "A 60640-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 60640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 60640-2020.docx", "A 60640-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 60640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 60640-2020.docx", "A 60640-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 60640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 60640-2020.docx", "A 60640-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 60640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 60640-2020.docx", "A 60640-2020")</f>
         <v/>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2253,27 +2253,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 1255-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 1255-2021.xlsx", "A 1255-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 1255-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 1255-2021.png", "A 1255-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 1255-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 1255-2021.docx", "A 1255-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 1255-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 1255-2021.docx", "A 1255-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 1255-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 1255-2021.docx", "A 1255-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 1255-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 1255-2021.docx", "A 1255-2021")</f>
         <v/>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,27 +2343,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 29668-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 29668-2021.xlsx", "A 29668-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 29668-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 29668-2021.png", "A 29668-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 29668-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 29668-2021.docx", "A 29668-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 29668-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 29668-2021.docx", "A 29668-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 29668-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 29668-2021.docx", "A 29668-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 29668-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 29668-2021.docx", "A 29668-2021")</f>
         <v/>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,27 +2428,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 64484-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 64484-2021.xlsx", "A 64484-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 64484-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 64484-2021.png", "A 64484-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 64484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 64484-2021.docx", "A 64484-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 64484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 64484-2021.docx", "A 64484-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 64484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 64484-2021.docx", "A 64484-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 64484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 64484-2021.docx", "A 64484-2021")</f>
         <v/>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,27 +2513,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 23151-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 23151-2022.xlsx", "A 23151-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 23151-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 23151-2022.png", "A 23151-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 23151-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 23151-2022.docx", "A 23151-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 23151-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 23151-2022.docx", "A 23151-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 23151-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 23151-2022.docx", "A 23151-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 23151-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 23151-2022.docx", "A 23151-2022")</f>
         <v/>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,27 +2598,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 53397-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 53397-2022.xlsx", "A 53397-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 53397-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 53397-2022.png", "A 53397-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 53397-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 53397-2022.docx", "A 53397-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 53397-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 53397-2022.docx", "A 53397-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 53397-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 53397-2022.docx", "A 53397-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 53397-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 53397-2022.docx", "A 53397-2022")</f>
         <v/>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,27 +2683,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 7707-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 7707-2023.xlsx", "A 7707-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 7707-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 7707-2023.png", "A 7707-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 7707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 7707-2023.docx", "A 7707-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 7707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 7707-2023.docx", "A 7707-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 7707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 7707-2023.docx", "A 7707-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 7707-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 7707-2023.docx", "A 7707-2023")</f>
         <v/>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2768,27 +2768,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 24211-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/artfynd/A 24211-2023.xlsx", "A 24211-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 24211-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/kartor/A 24211-2023.png", "A 24211-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 24211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomål/A 24211-2023.docx", "A 24211-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 24211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/klagomålsmail/A 24211-2023.docx", "A 24211-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 24211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsyn/A 24211-2023.docx", "A 24211-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 24211-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TANUM/tillsynsmail/A 24211-2023.docx", "A 24211-2023")</f>
         <v/>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1422,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5548,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13667,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13724,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15268,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20356,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20983,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22693,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22807,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22926,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25620,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25734,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25848,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25905,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26314,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26827,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>7</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -762,6 +762,7 @@
 Talltita
 Vedflamlav
 Vedskivlav
+Dropptaggsvamp
 Skuggblåslav</t>
         </is>
       </c>
@@ -800,7 +801,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +890,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +983,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1070,7 +1071,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1159,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,7 +1251,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1337,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1422,7 +1423,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1509,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1595,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1680,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,7 +1765,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1849,7 +1850,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1935,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2023,7 +2024,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2113,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2198,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2288,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,7 +2378,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2462,7 +2463,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2547,7 +2548,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2632,7 +2633,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2717,7 +2718,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2802,7 +2803,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2860,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2916,7 +2917,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2973,7 +2974,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3030,7 +3031,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3092,7 +3093,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3149,7 +3150,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3206,7 +3207,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3263,7 +3264,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3320,7 +3321,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3377,7 +3378,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3434,7 +3435,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3491,7 +3492,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3548,7 +3549,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3605,7 +3606,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3662,7 +3663,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3719,7 +3720,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3776,7 +3777,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3833,7 +3834,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3890,7 +3891,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3947,7 +3948,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4004,7 +4005,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4061,7 +4062,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4118,7 +4119,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4175,7 +4176,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4232,7 +4233,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4289,7 +4290,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4346,7 +4347,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4403,7 +4404,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4460,7 +4461,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4517,7 +4518,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4574,7 +4575,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4631,7 +4632,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4688,7 +4689,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4746,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4803,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4860,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4916,7 +4917,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4973,7 +4974,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5030,7 +5031,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5087,7 +5088,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5144,7 +5145,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5201,7 +5202,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5258,7 +5259,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5315,7 +5316,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5372,7 +5373,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5434,7 +5435,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5491,7 +5492,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5548,7 +5549,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5605,7 +5606,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5662,7 +5663,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5719,7 +5720,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5776,7 +5777,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5833,7 +5834,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5890,7 +5891,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5947,7 +5948,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6004,7 +6005,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6061,7 +6062,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6118,7 +6119,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6175,7 +6176,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6232,7 +6233,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6289,7 +6290,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6346,7 +6347,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6403,7 +6404,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6460,7 +6461,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6517,7 +6518,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6574,7 +6575,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6631,7 +6632,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6688,7 +6689,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6745,7 +6746,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6802,7 +6803,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6859,7 +6860,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6916,7 +6917,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6973,7 +6974,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7030,7 +7031,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7087,7 +7088,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7144,7 +7145,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7201,7 +7202,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7258,7 +7259,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7315,7 +7316,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7372,7 +7373,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7429,7 +7430,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7486,7 +7487,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7543,7 +7544,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7600,7 +7601,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7657,7 +7658,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7714,7 +7715,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7771,7 +7772,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7828,7 +7829,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7885,7 +7886,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7942,7 +7943,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7999,7 +8000,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8056,7 +8057,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8113,7 +8114,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8170,7 +8171,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8227,7 +8228,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8284,7 +8285,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8341,7 +8342,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8398,7 +8399,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8455,7 +8456,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8512,7 +8513,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8569,7 +8570,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8626,7 +8627,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8683,7 +8684,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8740,7 +8741,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8797,7 +8798,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8854,7 +8855,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8911,7 +8912,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8968,7 +8969,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9025,7 +9026,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9082,7 +9083,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9139,7 +9140,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9196,7 +9197,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9253,7 +9254,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9310,7 +9311,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9367,7 +9368,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9424,7 +9425,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9481,7 +9482,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9538,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9595,7 +9596,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9652,7 +9653,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9709,7 +9710,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9766,7 +9767,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9823,7 +9824,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9880,7 +9881,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9937,7 +9938,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9995,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10051,7 +10052,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10108,7 +10109,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10165,7 +10166,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10228,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10289,7 +10290,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10346,7 +10347,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10403,7 +10404,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10461,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10517,7 +10518,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10574,7 +10575,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10631,7 +10632,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10688,7 +10689,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10745,7 +10746,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10802,7 +10803,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10859,7 +10860,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10916,7 +10917,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10974,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11031,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11088,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11144,7 +11145,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11201,7 +11202,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11264,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11321,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11378,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11435,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11492,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11549,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11606,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11663,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11725,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11782,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11839,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11895,7 +11896,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,7 +11953,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12009,7 +12010,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12066,7 +12067,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12123,7 +12124,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12180,7 +12181,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12237,7 +12238,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12294,7 +12295,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12351,7 +12352,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12409,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12465,7 +12466,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12522,7 +12523,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,7 +12580,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12636,7 +12637,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12693,7 +12694,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12750,7 +12751,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12807,7 +12808,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12864,7 +12865,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,7 +12922,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12978,7 +12979,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13035,7 +13036,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13092,7 +13093,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13149,7 +13150,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13206,7 +13207,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13263,7 +13264,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13320,7 +13321,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13377,7 +13378,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13434,7 +13435,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13496,7 +13497,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13553,7 +13554,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13610,7 +13611,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13667,7 +13668,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13724,7 +13725,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13781,7 +13782,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13838,7 +13839,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13895,7 +13896,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13952,7 +13953,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14009,7 +14010,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14066,7 +14067,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14123,7 +14124,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14180,7 +14181,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14237,7 +14238,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14294,7 +14295,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14351,7 +14352,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14408,7 +14409,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14465,7 +14466,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14522,7 +14523,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14584,7 +14585,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14641,7 +14642,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14698,7 +14699,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14755,7 +14756,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14812,7 +14813,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14869,7 +14870,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14926,7 +14927,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14983,7 +14984,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15040,7 +15041,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15097,7 +15098,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15154,7 +15155,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15211,7 +15212,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15268,7 +15269,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15325,7 +15326,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15382,7 +15383,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15439,7 +15440,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15496,7 +15497,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15553,7 +15554,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15610,7 +15611,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15667,7 +15668,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15724,7 +15725,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15781,7 +15782,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15838,7 +15839,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15895,7 +15896,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15952,7 +15953,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16009,7 +16010,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16066,7 +16067,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16123,7 +16124,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16180,7 +16181,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16237,7 +16238,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16294,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16351,7 +16352,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16408,7 +16409,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16465,7 +16466,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16522,7 +16523,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16579,7 +16580,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16636,7 +16637,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16693,7 +16694,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16750,7 +16751,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16807,7 +16808,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16864,7 +16865,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16921,7 +16922,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16978,7 +16979,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17035,7 +17036,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17092,7 +17093,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17149,7 +17150,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17206,7 +17207,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17263,7 +17264,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17320,7 +17321,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17377,7 +17378,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17434,7 +17435,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17491,7 +17492,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17548,7 +17549,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17605,7 +17606,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17662,7 +17663,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17719,7 +17720,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17776,7 +17777,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17833,7 +17834,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17890,7 +17891,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17947,7 +17948,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18009,7 +18010,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18071,7 +18072,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18128,7 +18129,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18185,7 +18186,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18242,7 +18243,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18299,7 +18300,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18356,7 +18357,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18413,7 +18414,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18470,7 +18471,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18527,7 +18528,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18584,7 +18585,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18641,7 +18642,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18698,7 +18699,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18755,7 +18756,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18812,7 +18813,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18874,7 +18875,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18931,7 +18932,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18988,7 +18989,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19045,7 +19046,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19102,7 +19103,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19159,7 +19160,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19216,7 +19217,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19273,7 +19274,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19330,7 +19331,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19387,7 +19388,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19444,7 +19445,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19501,7 +19502,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19558,7 +19559,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19615,7 +19616,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19672,7 +19673,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19729,7 +19730,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19786,7 +19787,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19843,7 +19844,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19900,7 +19901,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19957,7 +19958,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20014,7 +20015,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20071,7 +20072,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20128,7 +20129,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20185,7 +20186,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20242,7 +20243,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20299,7 +20300,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20356,7 +20357,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20413,7 +20414,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20470,7 +20471,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20527,7 +20528,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20584,7 +20585,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20641,7 +20642,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20698,7 +20699,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20755,7 +20756,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20812,7 +20813,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20869,7 +20870,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20926,7 +20927,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20983,7 +20984,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21040,7 +21041,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21097,7 +21098,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21154,7 +21155,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21211,7 +21212,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21268,7 +21269,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21325,7 +21326,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21382,7 +21383,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21439,7 +21440,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21496,7 +21497,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21553,7 +21554,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21610,7 +21611,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21667,7 +21668,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21724,7 +21725,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21781,7 +21782,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21838,7 +21839,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21895,7 +21896,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21952,7 +21953,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22009,7 +22010,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22066,7 +22067,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22123,7 +22124,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22180,7 +22181,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22237,7 +22238,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22294,7 +22295,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22351,7 +22352,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22408,7 +22409,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22465,7 +22466,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22522,7 +22523,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22579,7 +22580,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22636,7 +22637,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22693,7 +22694,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22750,7 +22751,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22807,7 +22808,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22869,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22926,7 +22927,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22988,7 +22989,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23045,7 +23046,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23102,7 +23103,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23159,7 +23160,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23216,7 +23217,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23273,7 +23274,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23330,7 +23331,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23387,7 +23388,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23444,7 +23445,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23501,7 +23502,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23558,7 +23559,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23615,7 +23616,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23672,7 +23673,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23729,7 +23730,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23786,7 +23787,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23843,7 +23844,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23900,7 +23901,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23962,7 +23963,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24019,7 +24020,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24076,7 +24077,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24133,7 +24134,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24190,7 +24191,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24247,7 +24248,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24304,7 +24305,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24361,7 +24362,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24418,7 +24419,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24475,7 +24476,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24532,7 +24533,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24589,7 +24590,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24646,7 +24647,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24703,7 +24704,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24760,7 +24761,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24817,7 +24818,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24874,7 +24875,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24931,7 +24932,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24988,7 +24989,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25045,7 +25046,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25102,7 +25103,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25159,7 +25160,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25216,7 +25217,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25273,7 +25274,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25330,7 +25331,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25387,7 +25388,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25444,7 +25445,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25501,7 +25502,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25558,7 +25559,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25620,7 +25621,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25677,7 +25678,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25734,7 +25735,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25791,7 +25792,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25848,7 +25849,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25905,7 +25906,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25967,7 +25968,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26024,7 +26025,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26081,7 +26082,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26138,7 +26139,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26195,7 +26196,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26252,7 +26253,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26314,7 +26315,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26371,7 +26372,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26428,7 +26429,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26485,7 +26486,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26542,7 +26543,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26599,7 +26600,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26656,7 +26657,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26713,7 +26714,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26770,7 +26771,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26827,7 +26828,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26884,7 +26885,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26941,7 +26942,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26998,7 +26999,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27055,7 +27056,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27112,7 +27113,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -572,7 +572,7 @@
         <v>43445</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         <v>43698</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>43707</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>44208</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>44240</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>43698</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>43882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44007</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>44868</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>43543</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>43563</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43775</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>43975</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44153</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>44207</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2288,7 +2288,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>44719</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44969</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45079</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>43327</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43327</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>43327</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>43329</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43356</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>43396</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>43402</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43404</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43412</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43420</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43426</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43430</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43430</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43433</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43446</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43447</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43461</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43472</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43476</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43478</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43496</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43496</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43500</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>43504</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43522</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43522</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43524</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43530</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43536</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>43538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>43541</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>43545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>43546</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>43549</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43553</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43563</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43577</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43580</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43584</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43584</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43605</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43605</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43606</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         <v>43608</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>43613</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>43614</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>43632</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>43643</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>43650</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>43651</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>43658</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>43705</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>43710</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>43716</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>43732</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>43745</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43745</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43745</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>43749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>43749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43755</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43757</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43788</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43793</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43794</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43795</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43795</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43805</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43809</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43811</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43811</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43811</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43812</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>43812</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43833</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43844</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43854</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43857</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>43887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>43887</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43887</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43887</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43891</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43893</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43900</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43900</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43900</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43903</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43915</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43923</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43924</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43945</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43978</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43978</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43978</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43982</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43984</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44005</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44006</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44006</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44029</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44046</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44049</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44055</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44062</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44071</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44071</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>44074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44076</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>44078</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>44078</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>44078</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>44096</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>44098</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>44103</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>44103</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44104</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44104</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44106</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>44118</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>44120</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44127</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44131</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>44131</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>44131</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44137</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>44137</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>44143</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44151</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44151</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>44161</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>44172</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>44179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44179</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44179</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44179</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44201</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44207</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         <v>44209</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44210</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44216</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44228</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44229</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44229</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>44232</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>44241</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44242</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>44249</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15155,7 +15155,7 @@
         <v>44250</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         <v>44250</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15269,7 +15269,7 @@
         <v>44270</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>44277</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15383,7 +15383,7 @@
         <v>44285</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44285</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>44285</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>44285</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>44292</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44292</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44293</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44295</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44306</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44313</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44313</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44316</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44318</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44318</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44318</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44319</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44321</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44327</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44327</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44327</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44327</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44327</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44328</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44344</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44356</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44361</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44361</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44377</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44377</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44377</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44382</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44391</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44395</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44395</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44399</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44400</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44417</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44417</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44418</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44426</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44426</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44434</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44434</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44438</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44438</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44441</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44446</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>44452</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44455</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44459</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44460</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44462</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44463</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44469</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44469</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44470</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44470</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44470</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44470</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44475</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44486</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44487</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44488</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44490</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44494</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44503</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44504</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44506</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44506</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44506</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44506</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44506</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44506</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44508</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44513</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44517</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44522</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44538</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44539</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44552</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44563</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44563</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44572</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44573</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44573</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44573</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44573</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44585</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44596</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44596</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44601</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44601</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44606</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44613</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44613</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44684</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44692</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44698</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44698</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44722</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44725</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44725</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44725</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44735</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>44749</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>44789</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
         <v>44792</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>44802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>44802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>44806</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>44806</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>44813</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>44817</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>44817</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22694,7 +22694,7 @@
         <v>44823</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>44823</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22808,7 +22808,7 @@
         <v>44824</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44824</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44825</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44830</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44830</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44832</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>44846</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>44852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>44862</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>44862</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>44867</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>44867</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>44872</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>44872</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>44879</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>44879</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>44887</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>44890</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44908</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44908</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44914</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44925</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44925</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44939</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44944</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44944</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44946</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44951</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44954</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44964</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44969</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44969</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44972</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44995</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>44999</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24989,7 +24989,7 @@
         <v>45000</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>45000</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45013</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>45016</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45022</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45023</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>45026</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>45026</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45029</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45030</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45035</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45036</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>45040</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>45048</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45061</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45061</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45063</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>45070</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>45070</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45072</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45072</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45075</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45078</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45079</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45085</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>45085</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>45085</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45102</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45102</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45102</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45102</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45102</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>45106</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45110</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45154</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45154</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
